--- a/Doc/journal_de_bord.xlsx
+++ b/Doc/journal_de_bord.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pk18ugy\Desktop\Modules\MA-PROJ-DBPY\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pk18ugy\Desktop\Modules\Projet_DBPY\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26F7001-F1D7-4E8A-9FC4-DE98280834CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9766C7B0-AE57-4083-9180-9EBE41CB1BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -139,6 +139,36 @@
   </si>
   <si>
     <t>Ajout des options de langues</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>Synchnoniser le dosier avec github</t>
+  </si>
+  <si>
+    <t>Modifier le journal de bord</t>
+  </si>
+  <si>
+    <t>avancement sur les barres de progressions</t>
+  </si>
+  <si>
+    <t>Ajout de l'option de filtrage</t>
+  </si>
+  <si>
+    <t>ne fonctionne pas</t>
+  </si>
+  <si>
+    <t>correction du filtrage</t>
+  </si>
+  <si>
+    <t>fonctionne</t>
+  </si>
+  <si>
+    <t>création des utilisateurs (customer et su)</t>
+  </si>
+  <si>
+    <t>créer une fonction pour changer d'utilisateur</t>
   </si>
 </sst>
 </file>
@@ -179,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -256,11 +286,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -291,6 +373,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -298,14 +384,24 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="15">
     <dxf>
       <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -325,7 +421,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -351,6 +447,76 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </font>
       <fill>
@@ -365,7 +531,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -645,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,141 +1112,295 @@
       <c r="B16" s="9">
         <v>0.44791666666666669</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
+      <c r="C16" s="9">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
+      <c r="A17" s="8">
+        <v>45231</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>45231</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>45234</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>45268</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>45268</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>45271</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.38472222222222219</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="1" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="3" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="3" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="3" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="3" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="2" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="2" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
   </mergeCells>
-  <conditionalFormatting sqref="C22:C28">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+  <conditionalFormatting sqref="C29:C35">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>"Fait"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"En cours"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>"À faire"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"En cours"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D17 D19:D24">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"Autre"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"Fait"</formula>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"Doc"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"Mysql"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>"Python"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D18">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"Autre"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"Doc"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"Mysql"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"Python"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Autre"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Doc"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Mysql"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"Doc"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Autre"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Python"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18" xr:uid="{604D11CD-7CFE-4D97-8CD6-A6DF5EC8FEAB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D25" xr:uid="{604D11CD-7CFE-4D97-8CD6-A6DF5EC8FEAB}">
       <formula1>"Python,Mysql,Doc,Autre"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C28" xr:uid="{31AE31DA-70ED-4B25-A356-325389F70AF1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:C35" xr:uid="{31AE31DA-70ED-4B25-A356-325389F70AF1}">
       <formula1>"À faire,En cours,Fait"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Doc/journal_de_bord.xlsx
+++ b/Doc/journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pk18ugy\Desktop\Modules\Projet_DBPY\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9766C7B0-AE57-4083-9180-9EBE41CB1BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895A0BA3-1DE3-4E38-9B1F-45C2F6FEF6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21840" yWindow="2895" windowWidth="12990" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -169,6 +169,24 @@
   </si>
   <si>
     <t>créer une fonction pour changer d'utilisateur</t>
+  </si>
+  <si>
+    <t>ajout de la fonction de suppression et début de la fonction d'ajout de lignes</t>
+  </si>
+  <si>
+    <t>Correction de bugs</t>
+  </si>
+  <si>
+    <t>ajouter dossier /img</t>
+  </si>
+  <si>
+    <t>ajouter menu</t>
+  </si>
+  <si>
+    <t>ajouter proportionalité couleur avec les valeurs</t>
+  </si>
+  <si>
+    <t>jouter la durée au MCD</t>
   </si>
 </sst>
 </file>
@@ -195,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +223,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,10 +366,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -377,14 +400,177 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -811,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,561 +1032,837 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>45240</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>0.4680555555555555</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>45240</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>0.47222222222222227</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>0.4861111111111111</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>45240</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>0.4861111111111111</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>0.5</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>45240</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>0.5</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>0.50763888888888886</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>45240</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>0.45069444444444445</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>0.48472222222222222</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>45240</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>0.4861111111111111</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>0.48749999999999999</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>45240</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>0.48749999999999999</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>0.50069444444444444</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>45240</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>0.50069444444444444</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>0.51111111111111118</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>45247</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>0.44722222222222219</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>0.4680555555555555</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>45247</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>0.4680555555555555</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>0.50972222222222219</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>45250</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>0.37638888888888888</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>0.42986111111111108</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>45250</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>0.42986111111111108</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>45251</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>0.49861111111111112</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>0.50624999999999998</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>45251</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>0.55555555555555558</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>0.57222222222222219</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>45254</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>0.44791666666666669</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>0.50347222222222221</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>45231</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>0.45277777777777778</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>0.4604166666666667</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>45231</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>0.46111111111111108</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>45234</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>0.37152777777777773</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>0.50694444444444442</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>45268</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>0.48472222222222222</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>45268</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>0.4861111111111111</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>0.50486111111111109</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>45271</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>0.38472222222222219</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>0.50555555555555554</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>45275</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="12" t="s">
+      <c r="A28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="13" t="s">
+      <c r="B30" s="18"/>
+      <c r="C30" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="3" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="2" t="s">
-        <v>18</v>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="24"/>
+      <c r="C41" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="38">
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A35:B35"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
   </mergeCells>
-  <conditionalFormatting sqref="C29:C35">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+  <conditionalFormatting sqref="C29:C36">
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
       <formula>"Fait"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
       <formula>"En cours"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
       <formula>"À faire"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D17 D19:D24">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
       <formula>"Autre"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
       <formula>"Doc"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
       <formula>"Mysql"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
       <formula>"Python"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
       <formula>"Autre"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
       <formula>"Doc"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
       <formula>"Mysql"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
       <formula>"Python"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>"Autre"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>"Doc"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>"Mysql"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
       <formula>"Python"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C68">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Fait"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"En cours"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"À faire"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D25" xr:uid="{604D11CD-7CFE-4D97-8CD6-A6DF5EC8FEAB}">
       <formula1>"Python,Mysql,Doc,Autre"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:C35" xr:uid="{31AE31DA-70ED-4B25-A356-325389F70AF1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:C36 C40:C68" xr:uid="{31AE31DA-70ED-4B25-A356-325389F70AF1}">
       <formula1>"À faire,En cours,Fait"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Doc/journal_de_bord.xlsx
+++ b/Doc/journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pk18ugy\Desktop\Modules\Projet_DBPY\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895A0BA3-1DE3-4E38-9B1F-45C2F6FEF6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493CB2E4-EE7B-4C4A-90D9-5406931B7C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21840" yWindow="2895" windowWidth="12990" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>jouter la durée au MCD</t>
+  </si>
+  <si>
+    <t>ajouts de commentaires et création du readme .md</t>
+  </si>
+  <si>
+    <t>avancement sur la fenêtre d'inserssion de données</t>
+  </si>
+  <si>
+    <t>pas fini</t>
   </si>
 </sst>
 </file>
@@ -396,23 +405,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -420,127 +429,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color theme="0"/>
@@ -997,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,154 +1328,178 @@
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>45299</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>45299</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="11" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="12" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="12" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="2" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="2" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="2" t="s">
+      <c r="B35" s="16"/>
+      <c r="C35" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="2" t="s">
+      <c r="B36" s="16"/>
+      <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="12" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="23" t="s">
+      <c r="B41" s="23"/>
+      <c r="C41" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
         <v>50</v>
-      </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
-        <v>52</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
+        <v>52</v>
+      </c>
       <c r="B44" s="24"/>
       <c r="C44" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
+      <c r="A45" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="B45" s="24"/>
       <c r="C45" s="12" t="s">
         <v>11</v>
@@ -1595,259 +1508,223 @@
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="24"/>
-      <c r="C46" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C46" s="12"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
       <c r="B47" s="24"/>
-      <c r="C47" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C47" s="12"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="24"/>
-      <c r="C48" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C48" s="12"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
-      <c r="C49" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C49" s="12"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="24"/>
-      <c r="C50" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C50" s="12"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
       <c r="B51" s="24"/>
-      <c r="C51" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C51" s="12"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="24"/>
-      <c r="C52" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C52" s="12"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="24"/>
-      <c r="C53" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C53" s="12"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="24"/>
-      <c r="C54" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C54" s="12"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
       <c r="B55" s="24"/>
-      <c r="C55" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C55" s="12"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
       <c r="B56" s="24"/>
-      <c r="C56" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C56" s="12"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="24"/>
-      <c r="C57" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C57" s="12"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="24"/>
-      <c r="C58" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C58" s="12"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="24"/>
-      <c r="C59" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C59" s="12"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="24"/>
-      <c r="C60" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C60" s="12"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="24"/>
-      <c r="C61" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C61" s="12"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="24"/>
-      <c r="C62" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C62" s="12"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="24"/>
-      <c r="C63" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="B64" s="24"/>
-      <c r="C64" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="24"/>
-      <c r="C65" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C65" s="12"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="B66" s="24"/>
-      <c r="C66" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C66" s="12"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
       <c r="B67" s="24"/>
-      <c r="C67" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
       <c r="B68" s="24"/>
-      <c r="C68" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C68" s="12"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="24"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="12"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="24"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
   </mergeCells>
-  <conditionalFormatting sqref="C29:C36">
-    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
+  <conditionalFormatting sqref="C31:C38">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"Fait"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>"En cours"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
       <formula>"À faire"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D17 D19:D24">
-    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
+  <conditionalFormatting sqref="D2:D17 D19:D26">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"Autre"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>"Doc"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
       <formula>"Mysql"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
       <formula>"Python"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Autre"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"Doc"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>"Mysql"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>"Python"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+  <conditionalFormatting sqref="D27">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"Autre"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"Doc"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>"Mysql"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>"Python"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C68">
+  <conditionalFormatting sqref="C42:C70">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Fait"</formula>
     </cfRule>
@@ -1859,10 +1736,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D25" xr:uid="{604D11CD-7CFE-4D97-8CD6-A6DF5EC8FEAB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D27" xr:uid="{604D11CD-7CFE-4D97-8CD6-A6DF5EC8FEAB}">
       <formula1>"Python,Mysql,Doc,Autre"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:C36 C40:C68" xr:uid="{31AE31DA-70ED-4B25-A356-325389F70AF1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31:C38 C42:C70" xr:uid="{31AE31DA-70ED-4B25-A356-325389F70AF1}">
       <formula1>"À faire,En cours,Fait"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Doc/journal_de_bord.xlsx
+++ b/Doc/journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pk18ugy\Desktop\Modules\Projet_DBPY\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493CB2E4-EE7B-4C4A-90D9-5406931B7C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D5DF59-BD41-4910-9343-B346377F9C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>pas fini</t>
+  </si>
+  <si>
+    <t>correction de thermes</t>
+  </si>
+  <si>
+    <t>fin de la fonction pour ajouter une ligne</t>
+  </si>
+  <si>
+    <t>modification des barres de progressions pour que la couleur soit proportionnel au score</t>
+  </si>
+  <si>
+    <t>implémentation de la fonction pour ajouter les utilisateurs</t>
   </si>
 </sst>
 </file>
@@ -886,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,163 +1379,215 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
+      <c r="A26" s="7">
+        <v>45303</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>45303</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>45303</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>45308</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.65763888888888888</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="11" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="12" t="s">
+      <c r="B35" s="22"/>
+      <c r="C35" s="12" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="16"/>
+      <c r="C39" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="2" t="s">
+      <c r="B40" s="16"/>
+      <c r="C40" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="23"/>
+      <c r="C45" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="24"/>
+      <c r="C47" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="24"/>
+      <c r="C49" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="12"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="12"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="12"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="12"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
@@ -1630,48 +1694,68 @@
       <c r="B70" s="24"/>
       <c r="C70" s="12"/>
     </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="24"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="12"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="12"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="24"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="12"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="24"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A65:B65"/>
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A60:B60"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A45:B45"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A38:B38"/>
   </mergeCells>
-  <conditionalFormatting sqref="C31:C38">
+  <conditionalFormatting sqref="C35:C42">
     <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"Fait"</formula>
     </cfRule>
@@ -1682,7 +1766,7 @@
       <formula>"À faire"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D17 D19:D26">
+  <conditionalFormatting sqref="D2:D17 D19:D30">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"Autre"</formula>
     </cfRule>
@@ -1710,7 +1794,7 @@
       <formula>"Python"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"Autre"</formula>
     </cfRule>
@@ -1724,7 +1808,7 @@
       <formula>"Python"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42:C70">
+  <conditionalFormatting sqref="C46:C74">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Fait"</formula>
     </cfRule>
@@ -1736,10 +1820,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D27" xr:uid="{604D11CD-7CFE-4D97-8CD6-A6DF5EC8FEAB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D31" xr:uid="{604D11CD-7CFE-4D97-8CD6-A6DF5EC8FEAB}">
       <formula1>"Python,Mysql,Doc,Autre"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31:C38 C42:C70" xr:uid="{31AE31DA-70ED-4B25-A356-325389F70AF1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C35:C42 C46:C74" xr:uid="{31AE31DA-70ED-4B25-A356-325389F70AF1}">
       <formula1>"À faire,En cours,Fait"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Doc/journal_de_bord.xlsx
+++ b/Doc/journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pk18ugy\Desktop\Modules\Projet_DBPY\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D5DF59-BD41-4910-9343-B346377F9C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC13BC98-3F80-4E7E-86DF-1994E60E34F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Fait</t>
-  </si>
-  <si>
-    <t>En cours</t>
   </si>
   <si>
     <t>finir la documentation</t>
@@ -419,6 +416,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -431,12 +434,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,13 +978,13 @@
         <v>0.5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1004,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="10"/>
     </row>
@@ -1022,10 +1019,10 @@
         <v>6</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1042,7 +1039,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="10"/>
     </row>
@@ -1060,7 +1057,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="10"/>
     </row>
@@ -1078,7 +1075,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="10"/>
     </row>
@@ -1096,7 +1093,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="10"/>
     </row>
@@ -1114,7 +1111,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="10"/>
     </row>
@@ -1132,10 +1129,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1152,7 +1149,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="10"/>
     </row>
@@ -1170,7 +1167,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="10"/>
     </row>
@@ -1188,7 +1185,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="10"/>
     </row>
@@ -1203,10 +1200,10 @@
         <v>0.50347222222222221</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="F16" s="10"/>
     </row>
@@ -1221,10 +1218,10 @@
         <v>0.4604166666666667</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="10"/>
     </row>
@@ -1242,7 +1239,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="10"/>
     </row>
@@ -1260,10 +1257,10 @@
         <v>6</v>
       </c>
       <c r="E19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1280,10 +1277,10 @@
         <v>6</v>
       </c>
       <c r="E20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1300,7 +1297,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="10"/>
     </row>
@@ -1318,7 +1315,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="10"/>
     </row>
@@ -1336,7 +1333,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="10"/>
     </row>
@@ -1354,7 +1351,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24" s="10"/>
     </row>
@@ -1372,10 +1369,10 @@
         <v>6</v>
       </c>
       <c r="E25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1392,7 +1389,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F26" s="10"/>
     </row>
@@ -1410,7 +1407,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="10"/>
     </row>
@@ -1428,7 +1425,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F28" s="10"/>
     </row>
@@ -1446,7 +1443,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29" s="10"/>
     </row>
@@ -1468,75 +1465,75 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="22"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="16"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="16"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="16"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="18"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1545,207 +1542,177 @@
       <c r="C42" s="13"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="23"/>
+      <c r="A45" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="16"/>
       <c r="C45" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="24"/>
+      <c r="A46" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="15"/>
       <c r="C46" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="24"/>
+      <c r="A47" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="15"/>
       <c r="C47" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="24"/>
+      <c r="A48" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="15"/>
       <c r="C48" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="24"/>
+      <c r="A49" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="15"/>
       <c r="C49" s="12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
       <c r="C50" s="12"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
       <c r="C51" s="12"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="12"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
       <c r="C53" s="12"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="12"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
       <c r="C55" s="12"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
       <c r="C56" s="12"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
       <c r="C57" s="12"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
       <c r="C58" s="12"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
       <c r="C59" s="12"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="12"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="12"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
       <c r="C62" s="12"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
       <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
       <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
       <c r="C65" s="12"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
       <c r="C66" s="12"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="24"/>
-      <c r="B67" s="24"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
       <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
       <c r="C68" s="12"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
-      <c r="B69" s="24"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
       <c r="C69" s="12"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="24"/>
-      <c r="B70" s="24"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
       <c r="C70" s="12"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="24"/>
-      <c r="B71" s="24"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
       <c r="C71" s="12"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="24"/>
-      <c r="B72" s="24"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
       <c r="C72" s="12"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="24"/>
-      <c r="B73" s="24"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
       <c r="C73" s="12"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="24"/>
-      <c r="B74" s="24"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
       <c r="C74" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
@@ -1754,6 +1721,36 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:C42">
     <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
